--- a/3-0-entities/0-sacsem/sacramento-seminarians.xlsx
+++ b/3-0-entities/0-sacsem/sacramento-seminarians.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/Documents/GitHub/theo-armour-agenda/3-0-entities/0-sacsem/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_640F7BF069F69D76E22D63A88827244AB2CA4D5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8768ECE3-2310-499E-A54B-5CA8199E50EC}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="members"/>
-    <sheet r:id="rId2" sheetId="2" name="alumni"/>
+    <sheet name="members" sheetId="1" r:id="rId1"/>
+    <sheet name="alumni" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="342">
   <si>
     <t>last name</t>
   </si>
@@ -122,7 +128,7 @@
     <t>E-mail</t>
   </si>
   <si>
-    <t xml:space="preserve">Phone number </t>
+    <t>Phone number </t>
   </si>
   <si>
     <t>Notes</t>
@@ -1035,13 +1041,18 @@
   </si>
   <si>
     <t>jim@bayareacouncil.org</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Petroni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1091,29 +1102,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1124,10 +1132,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1165,71 +1173,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1257,7 +1265,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1280,11 +1288,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1293,13 +1301,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1309,7 +1317,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1318,7 +1326,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1327,7 +1335,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1335,10 +1343,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1403,26 +1411,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="4" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="47.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1439,7 +1448,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1452,9 +1461,8 @@
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -1464,10 +1472,8 @@
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -1480,9 +1486,8 @@
       <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1495,9 +1500,8 @@
       <c r="D5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -1510,9 +1514,8 @@
       <c r="D6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -1525,9 +1528,8 @@
       <c r="D7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1538,20 +1540,16 @@
       <c r="D8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    </row>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
@@ -1564,9 +1562,8 @@
       <c r="D10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    </row>
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -1576,10 +1573,8 @@
       <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    </row>
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
@@ -1589,10 +1584,8 @@
       <c r="C12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    </row>
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>71</v>
       </c>
@@ -1605,9 +1598,8 @@
       <c r="D13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    </row>
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>75</v>
       </c>
@@ -1620,9 +1612,8 @@
       <c r="D14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    </row>
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>78</v>
       </c>
@@ -1632,10 +1623,8 @@
       <c r="C15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    </row>
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>81</v>
       </c>
@@ -1648,20 +1637,16 @@
       <c r="D16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    </row>
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    </row>
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>85</v>
       </c>
@@ -1674,9 +1659,8 @@
       <c r="D18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    </row>
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -1689,9 +1673,8 @@
       <c r="D19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    </row>
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>94</v>
       </c>
@@ -1704,9 +1687,8 @@
       <c r="D20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    </row>
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>98</v>
       </c>
@@ -1719,9 +1701,8 @@
       <c r="D21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    </row>
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>102</v>
       </c>
@@ -1734,9 +1715,8 @@
       <c r="D22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    </row>
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>106</v>
       </c>
@@ -1749,9 +1729,8 @@
       <c r="D23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    </row>
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>110</v>
       </c>
@@ -1764,9 +1743,8 @@
       <c r="D24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    </row>
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>110</v>
       </c>
@@ -1779,9 +1757,8 @@
       <c r="D25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    </row>
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>116</v>
       </c>
@@ -1794,9 +1771,8 @@
       <c r="D26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    </row>
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>120</v>
       </c>
@@ -1809,9 +1785,8 @@
       <c r="D27" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    </row>
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>123</v>
       </c>
@@ -1824,9 +1799,8 @@
       <c r="D28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    </row>
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>127</v>
       </c>
@@ -1836,10 +1810,8 @@
       <c r="C29" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    </row>
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>130</v>
       </c>
@@ -1852,9 +1824,8 @@
       <c r="D30" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    </row>
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>134</v>
       </c>
@@ -1864,23 +1835,19 @@
       <c r="C31" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    </row>
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>139</v>
       </c>
@@ -1893,9 +1860,8 @@
       <c r="D33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    </row>
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>143</v>
       </c>
@@ -1908,9 +1874,8 @@
       <c r="D34" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    </row>
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>143</v>
       </c>
@@ -1923,20 +1888,16 @@
       <c r="D35" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    </row>
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    </row>
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>150</v>
       </c>
@@ -1949,9 +1910,8 @@
       <c r="D37" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    </row>
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>154</v>
       </c>
@@ -1964,9 +1924,8 @@
       <c r="D38" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    </row>
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>158</v>
       </c>
@@ -1979,9 +1938,8 @@
       <c r="D39" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    </row>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>162</v>
       </c>
@@ -1991,10 +1949,8 @@
       <c r="C40" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    </row>
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>165</v>
       </c>
@@ -2007,9 +1963,8 @@
       <c r="D41" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    </row>
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>169</v>
       </c>
@@ -2019,21 +1974,16 @@
       <c r="C42" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    </row>
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    </row>
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>174</v>
       </c>
@@ -2046,9 +1996,8 @@
       <c r="D44" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    </row>
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>177</v>
       </c>
@@ -2058,10 +2007,8 @@
       <c r="C45" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    </row>
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>180</v>
       </c>
@@ -2074,9 +2021,8 @@
       <c r="D46" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    </row>
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>184</v>
       </c>
@@ -2086,10 +2032,8 @@
       <c r="C47" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    </row>
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>187</v>
       </c>
@@ -2099,10 +2043,8 @@
       <c r="C48" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    </row>
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>190</v>
       </c>
@@ -2112,21 +2054,16 @@
       <c r="C49" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    </row>
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    </row>
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>195</v>
       </c>
@@ -2139,9 +2076,8 @@
       <c r="D51" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    </row>
+    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>199</v>
       </c>
@@ -2154,9 +2090,8 @@
       <c r="D52" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    </row>
+    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>203</v>
       </c>
@@ -2166,10 +2101,8 @@
       <c r="C53" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    </row>
+    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>205</v>
       </c>
@@ -2182,9 +2115,8 @@
       <c r="D54" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    </row>
+    <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>209</v>
       </c>
@@ -2194,10 +2126,8 @@
       <c r="C55" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    </row>
+    <row r="56" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>212</v>
       </c>
@@ -2207,10 +2137,8 @@
       <c r="C56" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    </row>
+    <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>215</v>
       </c>
@@ -2220,10 +2148,8 @@
       <c r="C57" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    </row>
+    <row r="58" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>218</v>
       </c>
@@ -2233,10 +2159,8 @@
       <c r="C58" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    </row>
+    <row r="59" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>221</v>
       </c>
@@ -2249,9 +2173,8 @@
       <c r="D59" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    </row>
+    <row r="60" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>225</v>
       </c>
@@ -2264,9 +2187,8 @@
       <c r="D60" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    </row>
+    <row r="61" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>229</v>
       </c>
@@ -2279,9 +2201,8 @@
       <c r="D61" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    </row>
+    <row r="62" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>233</v>
       </c>
@@ -2294,9 +2215,8 @@
       <c r="D62" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    </row>
+    <row r="63" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>237</v>
       </c>
@@ -2309,9 +2229,8 @@
       <c r="D63" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    </row>
+    <row r="64" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>241</v>
       </c>
@@ -2324,9 +2243,8 @@
       <c r="D64" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    </row>
+    <row r="65" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>244</v>
       </c>
@@ -2339,9 +2257,8 @@
       <c r="D65" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    </row>
+    <row r="66" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>248</v>
       </c>
@@ -2354,9 +2271,8 @@
       <c r="D66" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    </row>
+    <row r="67" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>252</v>
       </c>
@@ -2369,9 +2285,8 @@
       <c r="D67" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    </row>
+    <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>256</v>
       </c>
@@ -2384,522 +2299,383 @@
       <c r="D68" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    </row>
+    <row r="69" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="2" t="s">
+    </row>
+    <row r="71" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="2" t="s">
+    </row>
+    <row r="72" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="2" t="s">
+    </row>
+    <row r="73" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E72" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="2" t="s">
+    </row>
+    <row r="74" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E73" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="2" t="s">
+    </row>
+    <row r="75" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E74" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="2" t="s">
+    </row>
+    <row r="76" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E75" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="2" t="s">
+    </row>
+    <row r="77" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="2" t="s">
+    </row>
+    <row r="78" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="2" t="s">
+    </row>
+    <row r="79" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="2" t="s">
+    </row>
+    <row r="80" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="2" t="s">
+    </row>
+    <row r="81" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="2" t="s">
+    </row>
+    <row r="82" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="2" t="s">
+    </row>
+    <row r="83" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="2" t="s">
+    </row>
+    <row r="84" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E83" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="2" t="s">
+    </row>
+    <row r="85" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="2" t="s">
+    </row>
+    <row r="86" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="2" t="s">
+    </row>
+    <row r="87" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E86" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="2" t="s">
+    </row>
+    <row r="88" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E87" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="2" t="s">
+    </row>
+    <row r="89" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E88" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="2" t="s">
+    </row>
+    <row r="90" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E89" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="2" t="s">
+    </row>
+    <row r="91" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="2" t="s">
+    </row>
+    <row r="92" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="2" t="s">
+    </row>
+    <row r="93" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="2" t="s">
+    </row>
+    <row r="94" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-    </row>
+    </row>
+    <row r="95" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="4" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="36.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2916,7 +2692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
+    <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2926,10 +2702,8 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
+    </row>
+    <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2939,10 +2713,8 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
+    </row>
+    <row r="4" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2955,31 +2727,24 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
+    </row>
+    <row r="5" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
+    </row>
+    <row r="6" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
+    </row>
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2989,10 +2754,8 @@
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
+    </row>
+    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3005,9 +2768,8 @@
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25">
+    </row>
+    <row r="9" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -3017,20 +2779,17 @@
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="23.25">
+    <row r="10" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
